--- a/projet/Spherodisation/Etabli/Resultats.xlsx
+++ b/projet/Spherodisation/Etabli/Resultats.xlsx
@@ -55,7 +55,7 @@
     <t>Heure de lancement traitement</t>
   </si>
   <si>
-    <t>8 hr 48 min 2 s</t>
+    <t>12 hr 50 min 34 s</t>
   </si>
   <si>
     <t>Paramètres du fours de fusion</t>
@@ -115,7 +115,7 @@
     <t>Longueur théorique du fil fourré à utiliser (en m)</t>
   </si>
   <si>
-    <t>8 hr 48 min 44 s</t>
+    <t>12 hr 51 min 16 s</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G7" s="4">
-        <v>1430</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
         <v>33</v>
       </c>
       <c r="H14" s="5">
-        <v>12.666675333634529</v>
+        <v>13.56794251591427</v>
       </c>
     </row>
   </sheetData>

--- a/projet/Spherodisation/Etabli/Resultats.xlsx
+++ b/projet/Spherodisation/Etabli/Resultats.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>12 hr 50 min 34 s</t>
+          <t>14 hr 27 min 47 s</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12 hr 51 min 16 s</t>
+          <t>14 hr 28 min 29 s</t>
         </is>
       </c>
       <c r="H14" t="n">
